--- a/myapp/files/9_MethodComparePercent/Scenario 311.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 311.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>3299</v>
+        <v>9215</v>
       </c>
       <c r="F2" t="n">
-        <v>4.16698244284451</v>
+        <v>1.69315571887919</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>3.92156862745098</v>
+        <v>2.03252032520325</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>5139</v>
+        <v>17104</v>
       </c>
       <c r="F3" t="n">
-        <v>6.49109511178477</v>
+        <v>3.14267340376665</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.92156862745098</v>
+        <v>2.84552845528455</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>2997</v>
+        <v>14527</v>
       </c>
       <c r="F4" t="n">
-        <v>3.78552482000758</v>
+        <v>2.66917776757005</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.96078431372549</v>
+        <v>2.03252032520325</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>6675</v>
+        <v>25244</v>
       </c>
       <c r="F5" t="n">
-        <v>8.43122394846533</v>
+        <v>4.63830960036748</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -707,10 +707,10 @@
         <v>8.82352941176471</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>9.80392156862745</v>
+        <v>6.09756097560976</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>18066</v>
+        <v>42629</v>
       </c>
       <c r="F6" t="n">
-        <v>22.8192497158014</v>
+        <v>7.83261368856224</v>
       </c>
       <c r="G6" t="n">
         <v>9</v>
@@ -745,10 +745,10 @@
         <v>13.2352941176471</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>17.6470588235294</v>
+        <v>8.13008130081301</v>
       </c>
       <c r="K6" t="n">
         <v>14</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7099</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.30436380339917</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.21951219512195</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>17644</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.24189251263206</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.2520325203252</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>2109</v>
+        <v>29321</v>
       </c>
       <c r="F9" t="n">
-        <v>2.66388783630163</v>
+        <v>5.38741387230133</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -859,10 +859,10 @@
         <v>8.82352941176471</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J9" t="n">
-        <v>1.96078431372549</v>
+        <v>4.47154471544715</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>7690</v>
+        <v>45563</v>
       </c>
       <c r="F10" t="n">
-        <v>9.71327523051661</v>
+        <v>8.37170418006431</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I10" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="J10" t="n">
-        <v>11.7647058823529</v>
+        <v>10.9756097560976</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>7146</v>
+        <v>54022</v>
       </c>
       <c r="F11" t="n">
-        <v>9.02614626752558</v>
+        <v>9.92595314653193</v>
       </c>
       <c r="G11" t="n">
         <v>12</v>
@@ -935,10 +935,10 @@
         <v>17.6470588235294</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="J11" t="n">
-        <v>13.7254901960784</v>
+        <v>13.4146341463415</v>
       </c>
       <c r="K11" t="n">
         <v>10</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3113</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.571979788700046</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>414</v>
+        <v>16348</v>
       </c>
       <c r="F13" t="n">
-        <v>0.522925350511557</v>
+        <v>3.00376665135508</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>1.96078431372549</v>
+        <v>3.65853658536585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>1863</v>
+        <v>36243</v>
       </c>
       <c r="F14" t="n">
-        <v>2.35316407730201</v>
+        <v>6.65925585668351</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -1049,10 +1049,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>1.96078431372549</v>
+        <v>4.8780487804878</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>889</v>
+        <v>42771</v>
       </c>
       <c r="F15" t="n">
-        <v>1.12290008841733</v>
+        <v>7.85870463941204</v>
       </c>
       <c r="G15" t="n">
         <v>6</v>
@@ -1087,10 +1087,10 @@
         <v>8.82352941176471</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J15" t="n">
-        <v>7.84313725490196</v>
+        <v>8.94308943089431</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>8424</v>
+        <v>62445</v>
       </c>
       <c r="F16" t="n">
-        <v>10.64039408867</v>
+        <v>11.4735875057418</v>
       </c>
       <c r="G16" t="n">
         <v>9</v>
@@ -1125,10 +1125,10 @@
         <v>13.2352941176471</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J16" t="n">
-        <v>9.80392156862745</v>
+        <v>9.75609756097561</v>
       </c>
       <c r="K16" t="n">
         <v>13</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5046</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.927147450620119</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>18529</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.40450160771704</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.4390243902439</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>23652</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.34579696830501</v>
       </c>
       <c r="G19" t="n">
         <v>2</v>
@@ -1239,10 +1239,10 @@
         <v>2.94117647058824</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.4390243902439</v>
       </c>
       <c r="K19" t="n">
         <v>2</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>18425</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.38539274230593</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>4.41176470588235</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.65853658536585</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>2579</v>
+        <v>19936</v>
       </c>
       <c r="F21" t="n">
-        <v>3.2575470506505</v>
+        <v>3.66302250803859</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1315,10 +1315,10 @@
         <v>5.88235294117647</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.92156862745098</v>
+        <v>3.2520325203252</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>2280</v>
+        <v>4135</v>
       </c>
       <c r="F22" t="n">
-        <v>2.87987874194771</v>
+        <v>0.759761139182361</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.96078431372549</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2430</v>
+        <v>6723</v>
       </c>
       <c r="F23" t="n">
-        <v>3.06934444865479</v>
+        <v>1.23527790537437</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1.96078431372549</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2430</v>
+        <v>6723</v>
       </c>
       <c r="F24" t="n">
-        <v>3.06934444865479</v>
+        <v>1.23527790537437</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.96078431372549</v>
+        <v>0.813008130081301</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2430</v>
+        <v>7211</v>
       </c>
       <c r="F25" t="n">
-        <v>3.06934444865479</v>
+        <v>1.32494258153422</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.96078431372549</v>
+        <v>1.21951219512195</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>2310</v>
+        <v>10582</v>
       </c>
       <c r="F26" t="n">
-        <v>2.91777188328912</v>
+        <v>1.94432705558107</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.47058823529412</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.96078431372549</v>
+        <v>1.21951219512195</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
